--- a/Excel/edit_toolbar.xlsx
+++ b/Excel/edit_toolbar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -124,39 +124,9 @@
     <t>These can be set using Tracks preferences.</t>
   </si>
   <si>
-    <t>टूलबार संपादित करा - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>टूलबार संपादित करा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>ही साधने संपादन मेनू, दृश्य मेनू, ट्रॅक मेनू आणि कीबोर्ड शॉर्टकटद्वारे प्रवेश करण्यायोग्य कार्ये करतात.</t>
-  </si>
-  <si>
     <t>अधिक जाणून घेण्यासाठी प्रतिमेवर क्लिक करा</t>
   </si>
   <si>
-    <t>वरील प्रतिमा अधिक स्पष्टपणे प्रदर्शित करण्यासाठी अधिक बटणे सक्रिय दर्शविते. तथापि, नवीन प्रकल्पात ऑडिओ नसलेला किंवा अधिक बटणे निवडलेली नसल्याचे सूचित होते.</t>
-  </si>
-  <si>
-    <t>कट संपादित करा&gt; कट किंवा Ctrl + X</t>
-  </si>
-  <si>
-    <t>निवडलेला ऑडिओ डेटा आणि / किंवा लेबले काढतो आणि क्लिपबोर्डवर ठेवतो. डीफॉल्टनुसार, निवडीच्या उजवीकडील कोणतेही ऑडिओ किंवा लेबल्स डावीकडील स्थानांतरित केली जातात.</t>
-  </si>
-  <si>
-    <t>कॉपी संपादित करा&gt; कॉपी करा किंवा Ctrl + C</t>
-  </si>
-  <si>
-    <t>निवडलेला ऑडिओ डेटा आणि / किंवा लेबले या प्रकल्पातून न काढता क्लिपबोर्डवर कॉपी करतो.</t>
-  </si>
-  <si>
     <t>पेस्ट संपादन&gt; पेस्ट करा किंवा Ctrl + V</t>
   </si>
   <si>
@@ -166,64 +136,94 @@
     <t>क्लिपबोर्डमध्ये एकाच वेळी फक्त एक आयटम असू शकतो, म्हणून त्यास कापून टाकणे किंवा त्यावर कॉपी करणे यापूर्वी मागील कोणतीही सामग्री पुनर्स्थित करते. तथापि त्या सामग्रीमध्ये अनेक ऑडिओ ट्रॅक आणि / किंवा अनिश्चित लांबीचे लेबल ट्रॅक किंवा एकाधिक ऑडिओ क्लिप असू शकतात.</t>
   </si>
   <si>
-    <t>ट्रिम ऑडिओ संपादन&gt; विशेष काढा&gt; ऑडिओ ट्रिम करा किंवा Ctrl + T</t>
-  </si>
-  <si>
-    <t>ट्रिम ऑडिओ सर्व ऑडिओ परंतु निवड हटवितो.</t>
-  </si>
-  <si>
-    <t>त्याच ट्रॅकमध्ये इतर स्वतंत्र क्लिप असल्यास क्लिप किंवा क्लिपच्या संपूर्ण लांबी ट्रिम केल्याशिवाय या काढल्या किंवा स्थानांतरित केल्या जात नाहीत. लेबल ट्रॅकवर परिणाम करत नाही.</t>
-  </si>
-  <si>
-    <t>मौन ऑडिओ संपादन&gt; विशेष काढा&gt; मौन ऑडिओ किंवा Ctrl + L</t>
-  </si>
-  <si>
-    <t>सायलेन्स ऑडिओ सध्या निवडलेल्या ऑडिओला निरपेक्ष शांततेसह पुनर्स्थित करतो. लेबल ट्रॅकवर परिणाम करत नाही.</t>
-  </si>
-  <si>
-    <t>पूर्ववत करा संपादित करा&gt; पूर्ववत करा आणि Ctrl + Z</t>
-  </si>
-  <si>
-    <t>शेवटचे संपादन ऑपरेशन परत करते. धृष्टता अमर्यादित "स्टेपवाईज" पूर्ववत करण्यास समर्थन देते. याचा अर्थ असा की आपण प्रकल्प उघडल्यानंतर शेवटच्या वेळेस प्रत्येक संपादन ऑपरेशन पूर्ववत करू शकता परंतु त्या संपादन नंतर केलेले कोणतेही बदल पूर्ववत केल्याशिवाय आपण एखादे विशिष्ट संपादन पूर्ववत करू शकत नाही. आपण आपल्या संपादन इतिहासाचे पुनरावलोकन करू शकता आणि पहा&gt; इतिहास .... येथे कोणत्याही विशिष्ट संपादनाच्या ठिकाणी सरळ जा.</t>
-  </si>
-  <si>
     <t>पुन्हा करा संपादन&gt; पुन्हा करा किंवा Ctrl + Y (मॅक शिफ्ट + Ctrl + झेड वर</t>
   </si>
   <si>
-    <t>मागील संपादन ऑपरेशन पुनर्संचयित जे नुकतेच पूर्ववत केले गेले. टीप: आपण ऑपरेशन पूर्ववत केल्यास पूर्ववत इतिहासात दिसणारी कोणतीही नवीन कार्यवाही करा, आपण यापुढे पूर्ववत ऑपरेशन पुन्हा करू शकत नाही.</t>
-  </si>
-  <si>
-    <t>झूम इन व्यू&gt; झूम&gt; झूम इन किंवा Ctrl + 1</t>
-  </si>
-  <si>
-    <t>उच्च वर्धापन पातळीवर झूम करते. आपण वैयक्तिक ऑडिओ नमुने प्रदर्शित करण्याच्या पातळीवर पोहोचत नाही तोपर्यंत आपण झूम वाढविणे सुरू ठेवू शकता.</t>
-  </si>
-  <si>
-    <t>झूम आउट व्ह्यू&gt; झूम&gt; झूम आउट किंवा Ctrl + 3</t>
-  </si>
-  <si>
-    <t>खालच्या विस्ताराच्या पातळीपर्यंत झूम कमी करते. आपण स्क्रीनवर 228 तासांच्या ऑडिओ फिट करण्यासाठी झूम कमी करू शकता.</t>
-  </si>
-  <si>
-    <t>निवड दृश्यावर झूम&gt; झूम&gt; निवडीवर झूम करा किंवा Ctrl + E</t>
-  </si>
-  <si>
-    <t>निवड क्षेत्रामध्ये किंवा त्यापेक्षा झूम वाढवा जेणेकरून ते उपलब्ध क्षैतिज विंडो क्षेत्रामध्ये फिट असेल. म्हणूनच निवड क्षेत्र बनविल्याशिवाय बटण राखाडी बाहेर टाकले जाते.</t>
-  </si>
-  <si>
-    <t>फिट ते रूंदी दृश्य&gt; ट्रॅक आकार&gt; फिट ते रूंदी किंवा Ctrl + F</t>
-  </si>
-  <si>
-    <t>झूम इन किंवा आऊट करा जेणेकरून प्रकल्पाचा संपूर्ण ऑडिओ उपलब्ध क्षैतिज ट्रॅक क्षेत्रामध्ये बसू शकेल.</t>
-  </si>
-  <si>
     <t>झूम टॉगल दृश्य&gt; झूम&gt; झूम टॉगल किंवा शिफ्ट + झेड</t>
   </si>
   <si>
-    <t>दोन प्रीसेट स्तर दरम्यान झूम.</t>
-  </si>
-  <si>
-    <t>हे ट्रॅक पसंती वापरून सेट केले जाऊ शकतात.</t>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>साधनपट्टी संपादन</t>
+  </si>
+  <si>
+    <t>साधनपट्टी संपादन - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>ही साधने संपादन मेनू, दृश्य मेनू, गीतपट्टा मेनू आणि कीबोर्ड द्रुतमार्गाद्वारे प्रवेश करण्यायोग्य कार्ये करतात.</t>
+  </si>
+  <si>
+    <t>वरील प्रतिमा अधिक स्पष्टपणे प्रदर्शित करण्यासाठी अधिक बटणे सक्रिय दर्शविते. तथापि, नवीन प्रकल्पात ध्वनी नसलेला किंवा अधिक बटणे निवडलेली नसल्याचे सूचित होते.</t>
+  </si>
+  <si>
+    <t>कापून घ्या संपादन &gt; कापून घ्या किंवा Ctrl + X</t>
+  </si>
+  <si>
+    <t>निवडलेला ध्वनी माहिती आणि / किंवा नावपट्टी  काढतो आणि क्लिपबोर्डवर ठेवतो. डीफॉल्टनुसार, निवडीच्या उजवीकडील कोणतेही ध्वनी किंवा नावपट्टी डावीकडील स्थानांतरित केली जातात.</t>
+  </si>
+  <si>
+    <t>प्रती करा संपादन &gt;प्रती करा किंवा Ctrl + C</t>
+  </si>
+  <si>
+    <t>निवडलेली ध्वनी माहिती आणि / किंवा नावपट्टी या प्रकल्पातून न काढता क्लिपबोर्डवर प्रत तयार करतो.</t>
+  </si>
+  <si>
+    <t>ट्रिम ध्वनी संपादन&gt; विशेष काढा&gt; ध्वनी ट्रिम करा किंवा Ctrl + T</t>
+  </si>
+  <si>
+    <t>ट्रिम ध्वनी सर्व ध्वनी परंतु निवड हटवितो.</t>
+  </si>
+  <si>
+    <t>त्याच गीतपट्टामध्ये इतर स्वतंत्र फित असल्यास फित किंवा फितच्या संपूर्ण लांबी ट्रिम केल्याशिवाय या काढल्या किंवा स्थानांतरित केल्या जात नाहीत. नावपट्टीच्या पट्ट्यावर परिणाम करत नाही.</t>
+  </si>
+  <si>
+    <t>ध्वनी शांत करा  संपादन&gt; विशेष काढा&gt; ध्वनी शांत करा किंवा Ctrl + L</t>
+  </si>
+  <si>
+    <t>ध्वनी शांत करा सध्या निवडलेल्या ध्वनीला निरपेक्ष शांततेसह पुनर्स्थित करतो. नावपट्टीच्या पट्टावर परिणाम करत नाही.</t>
+  </si>
+  <si>
+    <t>पूर्ववत करा संपादन &gt; पूर्ववत करा आणि Ctrl + Z</t>
+  </si>
+  <si>
+    <t>शेवटचे संपादन कार्य परत करते. धृष्टता अमर्यादित "पायरीपायरीने" पूर्ववत करण्यास समर्थन देते. याचा अर्थ असा की आपण प्रकल्प उघडल्यानंतर शेवटच्या वेळेस प्रत्येक संपादन कार्य पूर्ववत करू शकता परंतु त्या संपादन नंतर केलेले कोणतेही बदल पूर्ववत केल्याशिवाय आपण एखादे विशिष्ट संपादन पूर्ववत करू शकत नाही. आपण आपल्या संपादन इतिहासाचे पुनरावलोकन करू शकता आणि दृश्य &gt; इतिहास .... येथे कोणत्याही विशिष्ट संपादनाच्या ठिकाणी सरळ जा.</t>
+  </si>
+  <si>
+    <t>मागील संपादन कार्य पुनर्संचयित जे नुकतेच पूर्ववत केले गेले. टीप: आपण कार्य पूर्ववत केल्यास पूर्ववत इतिहासात दिसणारी कोणतीही नवीन कार्यवाही करा, आपण यापुढे पूर्ववत कार्य पुन्हा करू शकत नाही.</t>
+  </si>
+  <si>
+    <t>आकार वाढवा  दृश्य &gt; आकार मोठा करा &gt; आकार वाढवा किंवा Ctrl + 1</t>
+  </si>
+  <si>
+    <t>उच्च वर्धापन पातळीवर झूम करते. आपण वैयक्तिक ध्वनी नमुने प्रदर्शित करण्याच्या पातळीवर पोहोचत नाही तोपर्यंत आपण झूम वाढविणे सुरू ठेवू शकता.</t>
+  </si>
+  <si>
+    <t>आकार कमी करा दृश्य &gt;आकार मोठा करा&gt; आकार कमी करा किंवा Ctrl + 3</t>
+  </si>
+  <si>
+    <t>खालच्या विस्ताराच्या पातळीपर्यंत दृश्य आकार कमी करते. आपण पडद्यावर २२८ तासांच्या ध्वनी फिट करण्यासाठी झूम कमी करू शकता.</t>
+  </si>
+  <si>
+    <t>निवडीवर आकार वाढवा दृश्य&gt; आकार वाढवा&gt; निवडीवर आकार वाढवा किंवा Ctrl + E</t>
+  </si>
+  <si>
+    <t>निवड क्षेत्रामध्ये किंवा त्यापेक्षा आकार वाढवा जेणेकरून ते उपलब्ध क्षैतिज विंडो क्षेत्रामध्ये फिट असेल. म्हणूनच निवड क्षेत्र बनविल्याशिवाय बटण राखाडी बाहेर टाकले जाते.</t>
+  </si>
+  <si>
+    <t>रूंदीसाठी योग्य दृश्य&gt; गीतपट्ट्याचा आकार&gt; रूंदीसाठी योग्य किंवा Ctrl + F</t>
+  </si>
+  <si>
+    <t>आकार वाढवा किंवा कमी करा जेणेकरून प्रकल्पाचा संपूर्ण ध्वनी उपलब्ध क्षैतिज गीतपट्टा क्षेत्रामध्ये बसू शकेल.</t>
+  </si>
+  <si>
+    <t>दोन प्रीसेट स्तर दरम्यान आकार वाढवा.</t>
+  </si>
+  <si>
+    <t>हे गीतपट्टाचे प्राधान्य वापरून सेट केले जाऊ शकतात.</t>
   </si>
 </sst>
 </file>
@@ -282,11 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,9 +584,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -603,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -614,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -625,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -636,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -647,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -658,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -669,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -680,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -691,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -702,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -713,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -724,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -735,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -746,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -757,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -768,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -779,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -790,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -801,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -812,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -822,8 +829,8 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>56</v>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -834,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -845,7 +852,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -856,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -867,7 +874,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -878,7 +885,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -889,7 +896,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -900,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -911,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -922,7 +929,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -933,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -944,7 +951,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
